--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_73.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_73.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,676 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'D/3', 'G']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(31.138, 34.424)]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(14.414, 17.044)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:34.860000', '0:00:39.700000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:30.020000', '0:00:32.120000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_13</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08002602472348731</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab:maj', 'Ab/7']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(54.072, 59.053)]</t>
+          <t>[['C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.87, 14.66)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:10.519024', '0:01:15.720294')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1441647597254004</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F', 'F']]</t>
-        </is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1503759398496241</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'G']]</t>
+          <t>[['E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(20.130022, 25.095075)]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(50.604263, 57.976598)]</t>
+          <t>[('0:00:01.480839', '0:00:06.357029')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>[('0:00:01.640000', '0:00:23.480000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
-        </is>
+          <t>isophonics_2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_76</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1160714285714286</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['Eb:maj', 'Bb/3', 'C:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(33.92, 36.84)]</t>
+          <t>[['G', 'D/3', 'E:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(74.38, 84.38)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:01:23.141000', '0:01:29.999000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:10.141000', '0:00:14.901000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(12.921927, 21.908049)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(46.6, 49.04)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:17.860000', '0:00:28.300000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:06.920000', '0:00:13.460000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (55.72, 64.64), (0.82, 6.76)]</t>
+          <t>[['C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52), (36.34, 37.98), (9.78, 14.36)]</t>
+          <t>[('0:01:03.240000', '0:01:04.620000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:10.519024', '0:01:15.720294')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1324786324786325</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3342175066312997</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E', 'D']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(43.926916, 53.992766)]</t>
+          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(51.090272, 54.596485)]</t>
+          <t>[('0:00:01.240000', '0:00:09.940000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
+          <t>[('0:00:36.400000', '0:00:55.360000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_220</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>jaah_32</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3995157384987894</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D', 'D', 'D/7', 'D/6', 'D/5']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[['G', 'G', 'G', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[('0:00:00.325509', '0:00:04.348503')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:17.220000', '0:00:24.320000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1290849673202614</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F', 'C', 'G']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(49.731904, 54.666145)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(101.849092, 109.476848)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_60</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_65</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06906906906906907</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:min7', 'A:7', 'A:min7']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Bb:min7']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(18.62, 21.72)]</t>
+          <t>[['C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(27.65, 29.49)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:09.840000', '0:01:21.680000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:02.020000', '0:00:15.900000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3535714285714285</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C', 'G', 'C', 'G']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(35.197913, 52.29941)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(18.129546, 28.590136)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:13.320000', '0:00:43.780000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0711590296495957</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G/5', 'G:min/5', 'D'], ['D', 'G/5', 'D'], ['D', 'D', 'G/5']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C', 'C:min', 'G/3'], ['G', 'C', 'G/3'], ['G/3', 'G', 'C']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(86.291723, 91.934172), (19.708503, 25.501882), (12.707687, 24.062244)]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(15.565442, 19.466394), (22.020589, 24.598004), (5.894331, 9.748843)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:14.900000', '0:00:56.280000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(97.12, 104.1), (131.2, 136.34)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(101.5, 108.3), (17.12, 24.9)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2873563218390804</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(27.28, 57.9)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(47.68, 62.46)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(13.38418, 21.737596)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(52.02, 60.86)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:55.820000', '0:01:01.680000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_59</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.072680077871512</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(18.66, 20.74)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(6.37, 8.66)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
